--- a/posesiones/1381302.xlsx
+++ b/posesiones/1381302.xlsx
@@ -1883,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>3</v>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>9</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>8</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>15</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>21</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>8</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>15</v>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>20</v>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>12</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>7</v>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>18</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R28">
         <v>7</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>11</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>20</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>16</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R38">
         <v>17</v>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R39">
         <v>17</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3792,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R41">
         <v>15</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3895,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R43">
         <v>12</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R44">
         <v>19</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R46">
         <v>5</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R48">
         <v>14</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R50">
         <v>5</v>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R51">
         <v>18</v>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R52">
         <v>28</v>
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R53">
         <v>16</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R55">
         <v>15</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R58">
         <v>16</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4754,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R60">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R62">
         <v>10</v>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R70">
         <v>20</v>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R71">
         <v>14</v>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5398,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R73">
         <v>9</v>
@@ -5451,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R74">
         <v>17</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R76">
         <v>11</v>
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R77">
         <v>21</v>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R79">
         <v>17</v>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R81">
         <v>17</v>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R82">
         <v>16</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R84">
         <v>12</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R88">
         <v>26</v>
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R89">
         <v>12</v>
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R90">
         <v>2</v>
@@ -6310,10 +6310,10 @@
         <v>1</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6636,10 +6636,10 @@
         <v>1</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6689,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R99">
         <v>18</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6789,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R101">
         <v>15</v>
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6892,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R103">
         <v>11</v>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R105">
         <v>12</v>
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7095,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R107">
         <v>7</v>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7198,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R109">
         <v>8</v>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7398,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R113">
         <v>28</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7498,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R115">
         <v>18</v>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7692,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R119">
         <v>9</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7792,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R121">
         <v>11</v>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R123">
         <v>19</v>
@@ -7948,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R124">
         <v>12</v>
@@ -8001,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R125">
         <v>15</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R127">
         <v>6</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8204,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R129">
         <v>25</v>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8401,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R133">
         <v>19</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8501,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R135">
         <v>14</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8927,7 +8927,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R144">
         <v>21</v>
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9165,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9312,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R152">
         <v>26</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9415,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R154">
         <v>12</v>
@@ -9468,7 +9468,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R155">
         <v>16</v>
@@ -9521,7 +9521,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R156">
         <v>19</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9624,7 +9624,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R158">
         <v>19</v>
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9724,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R160">
         <v>17</v>
@@ -9777,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R161">
         <v>22</v>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10065,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10159,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10397,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R174">
         <v>13</v>
@@ -10444,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R176">
         <v>27</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R178">
         <v>11</v>
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R182">
         <v>17</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R183">
         <v>15</v>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R185">
         <v>23</v>
@@ -10997,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R190">
         <v>18</v>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11335,7 +11335,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11432,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R195">
         <v>18</v>
@@ -11485,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11629,7 +11629,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R199">
         <v>10</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11732,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R201">
         <v>8</v>
@@ -11782,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11832,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R203">
         <v>6</v>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R204">
         <v>17</v>
@@ -11935,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11985,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12126,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12176,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R210">
         <v>6</v>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12458,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12505,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12693,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12743,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R222">
         <v>8</v>
@@ -12796,7 +12796,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R223">
         <v>4</v>
@@ -12840,10 +12840,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q224">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12937,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13072,10 +13072,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q229">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13125,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R230">
         <v>10</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13228,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R232">
         <v>8</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13328,7 +13328,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R234">
         <v>20</v>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13431,7 +13431,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R236">
         <v>6</v>
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13531,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R238">
         <v>17</v>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R240">
         <v>14</v>
@@ -13687,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R241">
         <v>17</v>
@@ -13740,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R242">
         <v>21</v>
@@ -13793,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R243">
         <v>16</v>
@@ -13846,7 +13846,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R244">
         <v>11</v>
@@ -13896,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13946,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R246">
         <v>15</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14049,7 +14049,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R248">
         <v>7</v>
@@ -14102,7 +14102,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14152,7 +14152,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R250">
         <v>9</v>
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14296,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14346,7 +14346,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R254">
         <v>25</v>
@@ -14399,7 +14399,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R255">
         <v>3</v>
@@ -14452,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R256">
         <v>18</v>
@@ -14502,7 +14502,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14599,7 +14599,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R259">
         <v>6</v>
@@ -14649,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14746,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R262">
         <v>14</v>
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14893,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14940,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15037,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R268">
         <v>16</v>
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15184,7 +15184,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15234,7 +15234,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R272">
         <v>27</v>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15381,7 +15381,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R275">
         <v>20</v>
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15484,7 +15484,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R277">
         <v>6</v>
@@ -15534,7 +15534,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15584,7 +15584,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R279">
         <v>15</v>
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15687,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R281">
         <v>5</v>
@@ -15737,7 +15737,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15781,7 +15781,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15831,7 +15831,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R284">
         <v>16</v>
@@ -15881,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15928,7 +15928,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15978,7 +15978,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R287">
         <v>7</v>
@@ -16028,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16078,7 +16078,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16172,7 +16172,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16219,7 +16219,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16266,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16363,7 +16363,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R295">
         <v>19</v>
@@ -16416,7 +16416,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16466,7 +16466,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R297">
         <v>10</v>
@@ -16519,7 +16519,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16569,7 +16569,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R299">
         <v>14</v>
@@ -16619,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16669,7 +16669,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R301">
         <v>13</v>
@@ -16722,7 +16722,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16772,7 +16772,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R303">
         <v>12</v>
@@ -16822,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16872,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R305">
         <v>12</v>
@@ -16925,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16975,7 +16975,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R307">
         <v>12</v>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17075,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17125,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R310">
         <v>6</v>
@@ -17175,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17225,7 +17225,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R312">
         <v>17</v>
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17416,7 +17416,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17463,7 +17463,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17513,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R318">
         <v>17</v>
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17613,7 +17613,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R320">
         <v>13</v>
@@ -17663,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17713,7 +17713,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R322">
         <v>7</v>
@@ -17766,7 +17766,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R323">
         <v>14</v>
@@ -17819,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17869,7 +17869,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R325">
         <v>16</v>
@@ -17919,7 +17919,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17966,7 +17966,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18107,7 +18107,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18248,7 +18248,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18298,7 +18298,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R334">
         <v>12</v>
@@ -18351,7 +18351,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R335">
         <v>7</v>
@@ -18401,7 +18401,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18495,7 +18495,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R339">
         <v>0</v>
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18642,7 +18642,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18692,7 +18692,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R342">
         <v>16</v>
@@ -18745,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18795,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R344">
         <v>9</v>
@@ -18848,7 +18848,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R345">
         <v>8</v>
@@ -18901,7 +18901,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="R346">
         <v>5</v>
@@ -18954,7 +18954,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -19004,7 +19004,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R348">
         <v>7</v>
@@ -19057,7 +19057,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19107,7 +19107,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R350">
         <v>3</v>
@@ -19151,10 +19151,10 @@
         <v>1</v>
       </c>
       <c r="P351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q351">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19201,7 +19201,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19248,7 +19248,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19295,7 +19295,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19342,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19383,10 +19383,10 @@
         <v>1</v>
       </c>
       <c r="P356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q356">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19436,7 +19436,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R357">
         <v>14</v>
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19536,7 +19536,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R359">
         <v>9</v>
@@ -19589,7 +19589,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R360">
         <v>20</v>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19686,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19733,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19780,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19830,7 +19830,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R365">
         <v>0</v>
@@ -19880,7 +19880,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19927,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19974,7 +19974,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20024,7 +20024,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R369">
         <v>12</v>
@@ -20077,7 +20077,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R370">
         <v>22</v>
@@ -20130,7 +20130,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20180,7 +20180,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R372">
         <v>10</v>
@@ -20230,7 +20230,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20277,7 +20277,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20324,7 +20324,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20371,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20418,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20512,7 +20512,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20559,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20606,7 +20606,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20656,7 +20656,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R382">
         <v>16</v>
@@ -20709,7 +20709,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R383">
         <v>12</v>
@@ -20762,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20812,7 +20812,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R385">
         <v>7</v>
@@ -20865,7 +20865,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R386">
         <v>13</v>
@@ -20918,7 +20918,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20968,7 +20968,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R388">
         <v>18</v>
@@ -21021,7 +21021,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21071,7 +21071,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R390">
         <v>9</v>
@@ -21121,7 +21121,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21171,7 +21171,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R392">
         <v>21</v>
@@ -21221,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21271,7 +21271,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R394">
         <v>19</v>
@@ -21321,7 +21321,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21368,7 +21368,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21418,7 +21418,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R397">
         <v>0</v>
@@ -21468,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21518,7 +21518,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R399">
         <v>16</v>
@@ -21568,7 +21568,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21618,7 +21618,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R401">
         <v>16</v>
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21715,7 +21715,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21765,7 +21765,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R404">
         <v>17</v>
@@ -21815,7 +21815,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21862,7 +21862,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21909,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21956,7 +21956,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -22003,7 +22003,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R410">
         <v>0</v>
@@ -22106,7 +22106,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R412">
         <v>12</v>
@@ -22209,7 +22209,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22259,7 +22259,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R414">
         <v>17</v>
@@ -22312,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22362,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R416">
         <v>8</v>
@@ -22415,7 +22415,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R417">
         <v>20</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22515,7 +22515,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R419">
         <v>17</v>
@@ -22568,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R420">
         <v>25</v>
@@ -22621,7 +22621,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22671,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R422">
         <v>13</v>
@@ -22721,7 +22721,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22771,7 +22771,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R424">
         <v>19</v>
@@ -22821,7 +22821,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22871,7 +22871,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R426">
         <v>8</v>
@@ -22924,7 +22924,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22971,7 +22971,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -23018,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23112,7 +23112,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23159,7 +23159,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23206,7 +23206,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23256,7 +23256,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R434">
         <v>6</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23353,7 +23353,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23400,7 +23400,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23447,7 +23447,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23547,7 +23547,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R440">
         <v>13</v>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23647,7 +23647,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23747,7 +23747,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R444">
         <v>20</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23844,7 +23844,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23891,7 +23891,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23985,7 +23985,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24079,7 +24079,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24129,7 +24129,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R452">
         <v>4</v>
@@ -24182,7 +24182,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R453">
         <v>18</v>
@@ -24235,7 +24235,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24282,7 +24282,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24473,7 +24473,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24520,7 +24520,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24570,7 +24570,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R461">
         <v>26</v>
@@ -24623,7 +24623,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24673,7 +24673,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R463">
         <v>17</v>
@@ -24726,7 +24726,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24820,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24867,7 +24867,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24917,7 +24917,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R468">
         <v>12</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -25014,7 +25014,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25111,7 +25111,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R472">
         <v>17</v>
@@ -25164,7 +25164,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="R473">
         <v>12</v>
@@ -25214,7 +25214,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25264,7 +25264,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="R475">
         <v>14</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25361,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25455,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25505,7 +25505,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="R480">
         <v>14</v>
@@ -25558,7 +25558,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="R481">
         <v>17</v>
@@ -25611,7 +25611,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="R482">
         <v>10</v>
@@ -25661,7 +25661,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25702,10 +25702,10 @@
         <v>1</v>
       </c>
       <c r="P484" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q484">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25746,7 +25746,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
